--- a/Excel/01连井剖面.xlsx
+++ b/Excel/01连井剖面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56ED552-C5DD-4C5A-99A6-4F7031595645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92CEFE3-8CCA-48E0-9AD7-C6C23086112E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0工区坐标" sheetId="2" r:id="rId1"/>
@@ -788,7 +788,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
@@ -838,7 +838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -883,7 +883,7 @@
         <v>30.1779975</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -928,7 +928,7 @@
         <v>30.275752500000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1">
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>30.440392500000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1">
+    <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>30.751665000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1">
+    <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>30.836557500000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1">
+    <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>31.006342500000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1">
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>30.749092500000003</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1">
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>30.844275000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1">
+    <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>31.006342500000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1">
+    <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>30.486697500000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1">
+    <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>30.579307500000002</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1">
+    <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>30.751665000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1">
+    <row r="18" spans="1:14">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>31.199280000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1">
+    <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>31.291890000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1">
+    <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>31.466820000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1">
+    <row r="22" spans="1:14">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>31.199280000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1">
+    <row r="23" spans="1:14">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>31.286745000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1">
+    <row r="24" spans="1:14">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>31.461675000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1">
+    <row r="26" spans="1:14">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>31.2069975</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1">
+    <row r="27" spans="1:14">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>31.286745000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1">
+    <row r="28" spans="1:14">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>31.461675000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1">
+    <row r="30" spans="1:14">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>30.229447500000003</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1">
+    <row r="31" spans="1:14">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>30.327202500000002</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1">
+    <row r="32" spans="1:14">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>30.491842500000004</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1">
+    <row r="34" spans="1:14">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>30.229447500000003</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1">
+    <row r="35" spans="1:14">
       <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>30.327202500000002</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1">
+    <row r="36" spans="1:14">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -2460,11 +2460,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N37" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="K2_2"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="13">
       <iconFilter iconSet="3Arrows"/>
     </filterColumn>

--- a/Excel/01连井剖面.xlsx
+++ b/Excel/01连井剖面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92CEFE3-8CCA-48E0-9AD7-C6C23086112E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C3B17A-EC1D-4F3B-A335-BEAFBF8E82C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="2分层数据" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2分层数据'!$A$1:$N$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2分层数据'!$A$1:$O$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="37">
   <si>
     <t>单油层</t>
   </si>
@@ -166,6 +166,14 @@
   </si>
   <si>
     <t>压力(Mpa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚度和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -293,6 +301,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -786,15 +806,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -837,8 +857,11 @@
       <c r="N1" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -882,8 +905,14 @@
         <f>1.05*9.8*(D2+E2)/2/1000</f>
         <v>30.1779975</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="P2" s="14">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -927,8 +956,14 @@
         <f t="shared" ref="N3:N37" si="0">1.05*9.8*(D3+E3)/2/1000</f>
         <v>30.275752500000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="P3" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -972,8 +1007,14 @@
         <f t="shared" si="0"/>
         <v>30.358072500000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="P4" s="14">
+        <v>17.5</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1017,8 +1058,18 @@
         <f t="shared" si="0"/>
         <v>30.440392500000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <f>SUM(G2:G5)</f>
+        <v>17</v>
+      </c>
+      <c r="P5" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1062,8 +1113,18 @@
         <f t="shared" si="0"/>
         <v>30.751665000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <f t="shared" ref="O6:O37" si="1">SUM(G3:G6)</f>
+        <v>18.5</v>
+      </c>
+      <c r="P6" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1168,18 @@
         <f t="shared" si="0"/>
         <v>30.836557500000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="P7" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1152,8 +1223,18 @@
         <f t="shared" si="0"/>
         <v>30.918877500000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="P8" s="14">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1197,8 +1278,18 @@
         <f t="shared" si="0"/>
         <v>31.006342500000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="P9" s="15">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1242,8 +1333,18 @@
         <f t="shared" si="0"/>
         <v>30.749092500000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="P10" s="14">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1287,8 +1388,19 @@
         <f t="shared" si="0"/>
         <v>30.844275000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="P11">
+        <f>AVERAGE(P2:P10)</f>
+        <v>14.388888888888889</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1332,8 +1444,12 @@
         <f t="shared" si="0"/>
         <v>30.918877500000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1377,8 +1493,12 @@
         <f t="shared" si="0"/>
         <v>31.006342500000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1422,8 +1542,12 @@
         <f t="shared" si="0"/>
         <v>30.486697500000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1467,8 +1591,12 @@
         <f t="shared" si="0"/>
         <v>30.579307500000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1512,8 +1640,12 @@
         <f t="shared" si="0"/>
         <v>30.666772500000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -1557,8 +1689,12 @@
         <f t="shared" si="0"/>
         <v>30.751665000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1602,8 +1738,12 @@
         <f t="shared" si="0"/>
         <v>31.199280000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1647,8 +1787,12 @@
         <f t="shared" si="0"/>
         <v>31.291890000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1692,8 +1836,12 @@
         <f t="shared" si="0"/>
         <v>31.387072500000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1737,8 +1885,12 @@
         <f t="shared" si="0"/>
         <v>31.466820000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1782,8 +1934,12 @@
         <f t="shared" si="0"/>
         <v>31.199280000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -1827,8 +1983,12 @@
         <f t="shared" si="0"/>
         <v>31.286745000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -1872,8 +2032,12 @@
         <f t="shared" si="0"/>
         <v>31.387072500000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
@@ -1917,8 +2081,12 @@
         <f t="shared" si="0"/>
         <v>31.461675000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -1962,8 +2130,12 @@
         <f t="shared" si="0"/>
         <v>31.2069975</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
@@ -2007,8 +2179,12 @@
         <f t="shared" si="0"/>
         <v>31.286745000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -2052,8 +2228,12 @@
         <f t="shared" si="0"/>
         <v>31.387072500000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -2097,8 +2277,12 @@
         <f t="shared" si="0"/>
         <v>31.461675000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -2142,8 +2326,12 @@
         <f t="shared" si="0"/>
         <v>30.229447500000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -2187,8 +2375,12 @@
         <f t="shared" si="0"/>
         <v>30.327202500000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -2232,8 +2424,12 @@
         <f t="shared" si="0"/>
         <v>30.409522500000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -2277,8 +2473,12 @@
         <f t="shared" si="0"/>
         <v>30.491842500000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -2322,8 +2522,12 @@
         <f t="shared" si="0"/>
         <v>30.229447500000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
@@ -2367,8 +2571,12 @@
         <f t="shared" si="0"/>
         <v>30.327202500000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -2412,8 +2620,12 @@
         <f t="shared" si="0"/>
         <v>30.404377500000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
@@ -2457,10 +2669,14 @@
         <f t="shared" si="0"/>
         <v>30.491842500000004</v>
       </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N37" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="13">
+  <autoFilter ref="A1:O37" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
       <iconFilter iconSet="3Arrows"/>
     </filterColumn>
   </autoFilter>

--- a/Excel/01连井剖面.xlsx
+++ b/Excel/01连井剖面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C3B17A-EC1D-4F3B-A335-BEAFBF8E82C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A619F-9B40-4DC1-9656-A99BC35A5473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -313,6 +313,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -806,10 +807,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2672,6 +2673,12 @@
       <c r="O37">
         <f t="shared" si="1"/>
         <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="N38" s="16">
+        <f>AVERAGE(N2:N37)</f>
+        <v>30.825052708333342</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/01连井剖面.xlsx
+++ b/Excel/01连井剖面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A619F-9B40-4DC1-9656-A99BC35A5473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA9E331-0F2E-473F-821D-9C88F98AE608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,13 +807,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
@@ -2676,9 +2679,23 @@
       </c>
     </row>
     <row r="38" spans="1:15">
+      <c r="D38">
+        <f>MIN(D2:E37)</f>
+        <v>2931</v>
+      </c>
+      <c r="E38">
+        <f>MAX(D2:E37)</f>
+        <v>3060</v>
+      </c>
       <c r="N38" s="16">
         <f>AVERAGE(N2:N37)</f>
         <v>30.825052708333342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="E39">
+        <f>1.1*9.8*E38/1000</f>
+        <v>32.986800000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/01连井剖面.xlsx
+++ b/Excel/01连井剖面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA9E331-0F2E-473F-821D-9C88F98AE608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBB97A2-2AF5-4DB8-8CC4-22929262D5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="2分层数据" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2分层数据'!$A$1:$O$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2分层数据'!$A$1:$O$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -809,8 +809,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -865,7 +865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" hidden="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" hidden="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -967,7 +967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" hidden="1">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" hidden="1">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" hidden="1">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" hidden="1">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" hidden="1">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" hidden="1">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" hidden="1">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" hidden="1">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" hidden="1">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" hidden="1">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" hidden="1">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" hidden="1">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" hidden="1">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1846,7 +1846,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1894,7 +1894,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" hidden="1">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" hidden="1">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" hidden="1">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2090,7 +2090,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" hidden="1">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" hidden="1">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" hidden="1">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -2238,7 +2238,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2286,7 +2286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" hidden="1">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" hidden="1">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" hidden="1">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" hidden="1">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" hidden="1">
       <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" hidden="1">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" hidden="1">
       <c r="D38">
         <f>MIN(D2:E37)</f>
         <v>2931</v>
@@ -2692,16 +2692,21 @@
         <v>30.825052708333342</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" hidden="1">
       <c r="E39">
         <f>1.1*9.8*E38/1000</f>
         <v>32.986800000000002</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O37" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:O39" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <iconFilter iconSet="3Arrows"/>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="K2_2"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
